--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed3/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.276299999999999</v>
+        <v>-7.082100000000001</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.87639999999999</v>
+        <v>-12.87749999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -604,7 +604,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.31579999999999</v>
+        <v>-13.17849999999999</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.4407</v>
+        <v>-10.5506</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.790100000000003</v>
+        <v>-7.798800000000004</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.925300000000001</v>
+        <v>-7.965800000000001</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -740,10 +740,10 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.8493</v>
+        <v>-13.67929999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.67509999999999</v>
+        <v>-8.85259999999999</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.447999999999995</v>
+        <v>-7.552499999999998</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.961</v>
+        <v>-13.50609999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.217299999999997</v>
+        <v>-7.171899999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.2521</v>
+        <v>-7.265800000000002</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.496799999999999</v>
+        <v>-8.453599999999996</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.114599999999996</v>
+        <v>-8.216399999999991</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.4534</v>
+        <v>-13.7095</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.561299999999994</v>
+        <v>-7.749199999999994</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.263699999999999</v>
+        <v>-7.359499999999998</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.3271</v>
+        <v>-8.136999999999997</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.317500000000006</v>
+        <v>-8.304900000000005</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.79899999999999</v>
+        <v>-13.74509999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1590,10 +1590,10 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-10.9435</v>
+        <v>-10.9785</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.096399999999994</v>
+        <v>-6.991399999999996</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.3371</v>
+        <v>-7.312199999999998</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.50920000000001</v>
+        <v>-12.4075</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.4969</v>
+        <v>-12.48520000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.0605</v>
+        <v>-11.9553</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1794,7 +1794,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.2756</v>
+        <v>-13.2985</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.99309999999999</v>
+        <v>-12.8754</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.282</v>
+        <v>-12.59539999999999</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.4829</v>
+        <v>-13.39089999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.988200000000001</v>
+        <v>-8.100799999999994</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.398499999999993</v>
+        <v>-7.452899999999997</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.247899999999999</v>
+        <v>-6.3188</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.5029</v>
+        <v>-7.415300000000002</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.550000000000004</v>
+        <v>-8.5395</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2151,10 +2151,10 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.15830000000001</v>
+        <v>-13.1851</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.024999999999995</v>
+        <v>-8.0426</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.43420000000001</v>
+        <v>-13.72910000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.719599999999998</v>
+        <v>-7.6268</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
